--- a/Bank/Templates/report/br01depositbalancesummary.xlsx
+++ b/Bank/Templates/report/br01depositbalancesummary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Currency</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Purpose</t>
-  </si>
-  <si>
-    <t>Deposit Balance Details Summary As At</t>
   </si>
   <si>
     <t>R</t>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>Deposit Balance Details Summary As At {{EffectiveAsAt}}</t>
   </si>
 </sst>
 </file>
@@ -182,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -203,10 +203,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,33 +534,33 @@
   <sheetData>
     <row r="1" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>1</v>
@@ -565,7 +568,7 @@
       <c r="F2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="12" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="9" t="s">
@@ -583,101 +586,95 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
       </c>
       <c r="I4" t="e">
         <f>F4+H4</f>
         <v>#VALUE!</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="11" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
